--- a/DA/cap08-BasesDeDatos/IPT_ACRM_BDX_Plazos_150414.xlsx
+++ b/DA/cap08-BasesDeDatos/IPT_ACRM_BDX_Plazos_150414.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -340,9 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -356,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -368,7 +364,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,15 +668,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -689,7 +688,7 @@
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -704,7 +703,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -713,17 +712,17 @@
       <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -732,19 +731,19 @@
       <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -753,19 +752,19 @@
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -774,43 +773,43 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -819,25 +818,25 @@
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -867,15 +866,15 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -940,15 +939,15 @@
       <c r="G17" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -960,7 +959,7 @@
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -983,12 +982,12 @@
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1002,10 +1001,10 @@
       <c r="C22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1021,7 +1020,7 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1033,10 +1032,10 @@
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1050,7 +1049,7 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1065,7 +1064,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1078,7 +1077,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1090,18 +1089,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DA/cap08-BasesDeDatos/IPT_ACRM_BDX_Plazos_150414.xlsx
+++ b/DA/cap08-BasesDeDatos/IPT_ACRM_BDX_Plazos_150414.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -185,7 +185,7 @@
     <t>Se va dando respuesta a cada solicitud</t>
   </si>
   <si>
-    <t>Permite que el comercial pueda marcar varios materiales como un único grupo para solicitar plazo. Es importante disponner de toda la información de cda material (descripción y código 25)</t>
+    <t>Permite que el comercial pueda marcar varios materiales como un único grupo para solicitar plazo. Es importante disponner de toda la información de cada material (descripción y código 25)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
